--- a/ALT+F4の仕様書.xlsx
+++ b/ALT+F4の仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Downloads\チーム制作\GameProductionPractice1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E1A4B59-60EC-4E81-A753-D4D57DF48926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7167B77-BFED-458A-8A42-E277ADB40D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{DA5A36DE-A9A9-4D49-9534-4FCD47952881}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{DA5A36DE-A9A9-4D49-9534-4FCD47952881}"/>
   </bookViews>
   <sheets>
     <sheet name="目次について" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,10 @@
     <sheet name="プレイヤーの仕様" sheetId="4" r:id="rId4"/>
     <sheet name="アクション仕様" sheetId="5" r:id="rId5"/>
     <sheet name="装備仕様" sheetId="6" r:id="rId6"/>
-    <sheet name="敵の仕様" sheetId="7" r:id="rId7"/>
-    <sheet name="ボスの仕様" sheetId="10" r:id="rId8"/>
-    <sheet name="ステージと探索の仕様" sheetId="11" r:id="rId9"/>
+    <sheet name="スキルの仕様" sheetId="13" r:id="rId7"/>
+    <sheet name="敵の仕様" sheetId="7" r:id="rId8"/>
+    <sheet name="ボスの仕様" sheetId="10" r:id="rId9"/>
+    <sheet name="ステージと探索の仕様" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
   <si>
     <t>1.ゲームフロー</t>
     <phoneticPr fontId="1"/>
@@ -667,6 +668,198 @@
     <t>7-2一部敵がドロップするアイテムについて</t>
     <rPh sb="3" eb="6">
       <t>イチブテキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-1装備の仕様について</t>
+    <rPh sb="3" eb="5">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スロット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果内容</t>
+    <rPh sb="0" eb="4">
+      <t>コウカナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明文</t>
+    <rPh sb="0" eb="3">
+      <t>セツメイブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備アイテムは装備することによって装備効果を発動することができる。</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="17" eb="21">
+      <t>ソウビコウカ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（例）</t>
+    <rPh sb="1" eb="2">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強欲な壺</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウヨク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分はデッキから２枚ドローする。</t>
+  </si>
+  <si>
+    <t>とても不細工な壺</t>
+    <rPh sb="3" eb="6">
+      <t>ブサイク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スロットの上限に超える場合は装備不可。（スロット上限は専用のアイテムを獲得することによって増加する）</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ジョウゲン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5-2フィールドに落ちているアイテムについて</t>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6-1スキルの仕様</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル効果</t>
+    <rPh sb="3" eb="5">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※お金によって購入できるものは説明文の横に金額を書いておくこと</t>
+    <rPh sb="2" eb="3">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>セツメイブン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フィールド上で獲得できるアイテムは二種類</t>
+    <rPh sb="5" eb="6">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクトク</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ニシュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備とアイテムの二種類がある</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ニシュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>装備について</t>
+    <rPh sb="0" eb="2">
+      <t>ソウビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -700,7 +893,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -723,13 +916,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +952,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,6 +1347,19 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09310A2C-2271-426A-B393-30A18FA0A2C9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B840C60-3FFB-491C-984A-6967B1F3F3E2}">
   <dimension ref="A1:D9"/>
@@ -1223,7 +1450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91807D53-C917-46D8-945E-DB89744381E8}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1411,18 +1638,162 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84846750-6BAD-4A33-B391-D0FDDDD637CB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:D2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F9823C4-9D2E-4E7E-84B3-188E29D246E9}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266C7847-5D6C-4A1A-8158-E4D67332C194}">
   <dimension ref="A1:A7"/>
   <sheetViews>
@@ -1466,7 +1837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2762FCC-9688-4703-BA6F-F03F846B618A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1477,17 +1848,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09310A2C-2271-426A-B393-30A18FA0A2C9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/ALT+F4の仕様書.xlsx
+++ b/ALT+F4の仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\チーム制作\GameProductionPractice1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E1A4B59-60EC-4E81-A753-D4D57DF48926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8D61E2-E0BB-417A-BD4C-E8452920CDEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{DA5A36DE-A9A9-4D49-9534-4FCD47952881}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{DA5A36DE-A9A9-4D49-9534-4FCD47952881}"/>
   </bookViews>
   <sheets>
     <sheet name="目次について" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
   <si>
     <t>1.ゲームフロー</t>
     <phoneticPr fontId="1"/>
@@ -630,43 +630,318 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7-1敵の共通部分</t>
+    <t>HP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中ボス</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス（大型）</t>
+    <rPh sb="3" eb="5">
+      <t>オオガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボスの基本設定</t>
+    <rPh sb="3" eb="7">
+      <t>キホンセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージの要所要所にいるボス。倒さなくても進行上問題なし。</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウショ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中ボスのHPは少なめに。あくまでも歯ごたえがある程度</t>
+    <rPh sb="0" eb="1">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>行動パターン</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2～3個程度、HP減少による行動パターン変化など無し</t>
     <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル、少し多めのお金が入手できる（雑魚的より比較的多い程度）</t>
+    <rPh sb="4" eb="5">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ザコテキ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ヒカクテキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージの大詰めにいるボス。倒さないと進行上解けないギミックがでる</t>
+    <rPh sb="5" eb="7">
+      <t>オオヅ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大型のボス中型よりも多めに、歯ごたえが感じられる多さ</t>
+    <rPh sb="0" eb="2">
+      <t>オオガタ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チュウガタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2～3個程度に加え、HP減少により技が増える、強化される。</t>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クワ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゲンショウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スキル、多めのお金が入手でき、進行するのに必要な技が手に入る</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ワザ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>テ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の基本設定</t>
+    <rPh sb="0" eb="1">
       <t>テキ</t>
     </rPh>
-    <rPh sb="5" eb="7">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ブブン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>攻撃のパターン</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>お金のドロップ率</t>
+    <rPh sb="2" eb="6">
+      <t>キホンセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPは少な目、3～5発程度で倒せるくらい</t>
+    <rPh sb="3" eb="4">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>テイド</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの強化によって簡単に倒せるようになるが
+初期では少し面倒な程度</t>
+    <rPh sb="25" eb="27">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>メンドウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1～2個程度</t>
+    <rPh sb="3" eb="4">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お金、レアな装備</t>
     <rPh sb="1" eb="2">
       <t>カネ</t>
     </rPh>
-    <rPh sb="7" eb="8">
-      <t>リツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7-2一部敵がドロップするアイテムについて</t>
-    <rPh sb="3" eb="6">
-      <t>イチブテキ</t>
+    <rPh sb="6" eb="8">
+      <t>ソウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの強化をするため、少なくはあるがお金を入手できる
+また、極低確率でレアな装備がでる、つけるとショップの装備より少し強い</t>
+    <rPh sb="14" eb="15">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニュウシュ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ゴク</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>テイカクリツ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ソウビ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ツヨ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -700,7 +975,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -723,13 +998,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -750,6 +1038,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1223,7 +1523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91807D53-C917-46D8-945E-DB89744381E8}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1424,56 +1724,225 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266C7847-5D6C-4A1A-8158-E4D67332C194}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="68" customWidth="1"/>
+    <col min="2" max="2" width="77.125" customWidth="1"/>
+    <col min="3" max="3" width="56.75" customWidth="1"/>
+    <col min="4" max="7" width="31.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" ht="56.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2762FCC-9688-4703-BA6F-F03F846B618A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="46.75" customWidth="1"/>
+    <col min="2" max="2" width="82.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
